--- a/Л4/Распределение Пауссона.xlsx
+++ b/Л4/Распределение Пауссона.xlsx
@@ -16,12 +16,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>x</t>
   </si>
   <si>
-    <t>p = 0,7</t>
+    <t xml:space="preserve"> λ‎ = 0,5</t>
+  </si>
+  <si>
+    <t>λ‎ = 10</t>
+  </si>
+  <si>
+    <t>λ‎ = 20</t>
+  </si>
+  <si>
+    <t>λ‎ = 30</t>
   </si>
 </sst>
 </file>
@@ -29,7 +38,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -62,7 +71,7 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -80,6 +89,2257 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> λ‎ = 0,5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.60653065971263342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30326532985631671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5816332464079178E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2636055410679865E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5795069263349827E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5795069263349832E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3162557719458192E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4018269424701516E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8761418390438223E-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2645232439132378E-9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6322616219566172E-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4193710088936996E-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0914045870390615E-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1890017642457933E-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2464348723063881E-16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4154782907687952E-17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4233696586524839E-19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3009910760742607E-20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6138641002062894E-22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5101686847533788E-24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3775421711883457E-25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.6608146933055872E-27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.286548793933083E-28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7968452042023544E-30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8267608420882697E-32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1653521684176537E-33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.241061862341642E-35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.1501145598919514E-37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.4109188569498309E-39</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2777446305086067E-40</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.1295743841810097E-42</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4347973938403226E-44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.3668709278755399E-46</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.1316226179930851E-48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1958268555872446E-49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7083240794103567E-51</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3726723325143482E-53</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.2063139628573202E-55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.218834161654256E-57</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.4087617457106482E-59</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.7609521821382398E-61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="137614464"/>
+        <c:axId val="137616000"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="137614464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="137616000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="137616000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="137614464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>λ‎ = 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>4.5399929762484854E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5399929762484861E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2699964881242444E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5666549604141483E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8916637401035354E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7833274802070715E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3055458003451192E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0079225719215977E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11259903214901996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1251100357211333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1251100357211333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11373639611012118</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.4780330091767673E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2907946224436637E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2077104446026187E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4718069630684127E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1698793519177549E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2763996187751522E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0911089931952852E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7321626279975249E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8660813139987594E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.8861014952321864E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0391370432873514E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7561465405597289E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.317277252332188E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.926910900932863E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1257349618972562E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.1693887477676179E-6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4890674099170117E-6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.1347152066103749E-7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7115717355367883E-7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.5211991468928569E-8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7253747334040217E-8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.2284082830424716E-9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5377671420713246E-9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.3936204059180545E-10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.220450112755023E-10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.2985138182567988E-11</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.6802995217284686E-12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.2257178260842245E-12</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.5642945652105318E-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="138329472"/>
+        <c:axId val="138339456"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="138329472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138339456"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="138339456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138329472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>λ‎ = 20</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$D$2:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>2.0611536224385579E-9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1223072448771152E-8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.1223072448771121E-7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.7482048299180789E-6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.3741024149590403E-5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4964096598361591E-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.8321365532787196E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.2346758665106302E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.3086689666276553E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.9081532591725681E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8163065183451353E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0575102760627515E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.7625171267712545E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.7115648104173135E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3.8736640148818745E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5.1648853531758354E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.4561066914697929E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.595419637023286E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.4393551522480972E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.8835317392085208E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>8.8835317392085222E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.4605064182938283E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.6913694711762098E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>6.6881473662401839E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.5734561385334863E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.4587649108267881E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.4298191621744509E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.5406067867958917E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.8147191334256366E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2515304368452655E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>8.3435362456351133E-3</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.3829266100871558E-3</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3.3643291313044709E-3</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>2.0389873523057505E-3</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.199404324885734E-3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>6.8537389993470344E-4</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.8076327774150232E-4</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.0581798796837891E-4</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.0832525682546335E-4</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.5551413756647715E-5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.7775706878323834E-5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="138360704"/>
+        <c:axId val="138362240"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="138360704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138362240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="138362240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138360704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>λ‎ = 30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$E$2:$E$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>9.3576229688401748E-14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="138379648"/>
+        <c:axId val="138381184"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="138379648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138381184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="138381184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="138379648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v> λ‎ = 0,5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0.60653065971263342</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.30326532985631671</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.5816332464079178E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2636055410679865E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.5795069263349827E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.5795069263349832E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3162557719458192E-5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.4018269424701516E-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.8761418390438223E-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.2645232439132378E-9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.6322616219566172E-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7.4193710088936996E-12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.0914045870390615E-13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.1890017642457933E-14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.2464348723063881E-16</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.4154782907687952E-17</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.4233696586524839E-19</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3009910760742607E-20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.6138641002062894E-22</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>9.5101686847533788E-24</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2.3775421711883457E-25</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.6608146933055872E-27</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.286548793933083E-28</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7968452042023544E-30</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.8267608420882697E-32</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.1653521684176537E-33</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.241061862341642E-35</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.1501145598919514E-37</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>7.4109188569498309E-39</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.2777446305086067E-40</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.1295743841810097E-42</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3.4347973938403226E-44</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.3668709278755399E-46</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>8.1316226179930851E-48</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.1958268555872446E-49</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7083240794103567E-51</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>2.3726723325143482E-53</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.2063139628573202E-55</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>4.218834161654256E-57</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>5.4087617457106482E-59</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>6.7609521821382398E-61</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>λ‎ = 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$42</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="41"/>
+                <c:pt idx="0">
+                  <c:v>4.5399929762484854E-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5399929762484861E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2699964881242444E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.5666549604141483E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8916637401035354E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.7833274802070715E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.3055458003451192E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.0079225719215977E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11259903214901996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.1251100357211333</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.1251100357211333</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.11373639611012118</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>9.4780330091767673E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.2907946224436637E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.2077104446026187E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.4718069630684127E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1698793519177549E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.2763996187751522E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0911089931952852E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.7321626279975249E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8660813139987594E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>8.8861014952321864E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>4.0391370432873514E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.7561465405597289E-4</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.317277252332188E-5</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.926910900932863E-5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1257349618972562E-5</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>4.1693887477676179E-6</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.4890674099170117E-6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.1347152066103749E-7</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7115717355367883E-7</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.5211991468928569E-8</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.7253747334040217E-8</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>5.2284082830424716E-9</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5377671420713246E-9</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.3936204059180545E-10</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.220450112755023E-10</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.2985138182567988E-11</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>8.6802995217284686E-12</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.2257178260842245E-12</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>5.5642945652105318E-13</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="182737152"/>
+        <c:axId val="182735616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="182737152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="182735616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="182735616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="182737152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>195262</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>500062</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>490537</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>23812</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>185737</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>547687</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>242887</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>309562</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Диаграмма 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,8 +2631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U16" sqref="U16"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -384,33 +2644,57 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>0</v>
       </c>
       <c r="B2" s="1">
-        <f>_xlfn.BINOM.DIST(A2,15,0.7,0)</f>
-        <v>1.434890700000002E-8</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
+        <f>_xlfn.POISSON.DIST(A2,0.5,0)</f>
+        <v>0.60653065971263342</v>
+      </c>
+      <c r="C2" s="1">
+        <f>_xlfn.POISSON.DIST(A2,10,0)</f>
+        <v>4.5399929762484854E-5</v>
+      </c>
+      <c r="D2" s="1">
+        <f>_xlfn.POISSON.DIST(A2,20,0)</f>
+        <v>2.0611536224385579E-9</v>
+      </c>
+      <c r="E2" s="1">
+        <f>_xlfn.POISSON.DIST(0,30,0)</f>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <f t="shared" ref="B3:B27" si="0">_xlfn.BINOM.DIST(A3,15,0.7,0)</f>
-        <v>5.0221174500000008E-7</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
+        <f t="shared" ref="B3:B42" si="0">_xlfn.POISSON.DIST(A3,0.5,0)</f>
+        <v>0.30326532985631671</v>
+      </c>
+      <c r="C3" s="1">
+        <f t="shared" ref="C3:C42" si="1">_xlfn.POISSON.DIST(A3,10,0)</f>
+        <v>4.5399929762484861E-4</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D42" si="2">_xlfn.POISSON.DIST(A3,20,0)</f>
+        <v>4.1223072448771152E-8</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:E42" si="3">_xlfn.POISSON.DIST(0,30,0)</f>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -418,11 +2702,20 @@
       </c>
       <c r="B4" s="1">
         <f t="shared" si="0"/>
-        <v>8.2027918350000286E-6</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+        <v>7.5816332464079178E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2699964881242444E-3</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1223072448771121E-7</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -430,11 +2723,20 @@
       </c>
       <c r="B5" s="1">
         <f t="shared" si="0"/>
-        <v>8.2939339665000255E-5</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+        <v>1.2636055410679865E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <f t="shared" si="1"/>
+        <v>7.5666549604141483E-3</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7482048299180789E-6</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
@@ -442,11 +2744,20 @@
       </c>
       <c r="B6" s="1">
         <f t="shared" si="0"/>
-        <v>5.8057537765500173E-4</v>
-      </c>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+        <v>1.5795069263349827E-3</v>
+      </c>
+      <c r="C6" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8916637401035354E-2</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3741024149590403E-5</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -454,11 +2765,20 @@
       </c>
       <c r="B7" s="1">
         <f t="shared" si="0"/>
-        <v>2.9802869386290056E-3</v>
-      </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+        <v>1.5795069263349832E-4</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7833274802070715E-2</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="2"/>
+        <v>5.4964096598361591E-5</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -466,11 +2786,20 @@
       </c>
       <c r="B8" s="1">
         <f t="shared" si="0"/>
-        <v>1.1590004761335015E-2</v>
-      </c>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+        <v>1.3162557719458192E-5</v>
+      </c>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
+        <v>6.3055458003451192E-2</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8321365532787196E-4</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -478,11 +2807,20 @@
       </c>
       <c r="B9" s="1">
         <f t="shared" si="0"/>
-        <v>3.4770014284004995E-2</v>
-      </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+        <v>9.4018269424701516E-7</v>
+      </c>
+      <c r="C9" s="1">
+        <f t="shared" si="1"/>
+        <v>9.0079225719215977E-2</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="2"/>
+        <v>5.2346758665106302E-4</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -490,11 +2828,20 @@
       </c>
       <c r="B10" s="1">
         <f t="shared" si="0"/>
-        <v>8.1130033329345014E-2</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+        <v>5.8761418390438223E-8</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11259903214901996</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="2"/>
+        <v>1.3086689666276553E-3</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -502,11 +2849,20 @@
       </c>
       <c r="B11" s="1">
         <f t="shared" si="0"/>
-        <v>0.14723598641251504</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+        <v>3.2645232439132378E-9</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1251100357211333</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="2"/>
+        <v>2.9081532591725681E-3</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -514,11 +2870,20 @@
       </c>
       <c r="B12" s="1">
         <f t="shared" si="0"/>
-        <v>0.20613038097752104</v>
-      </c>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+        <v>1.6322616219566172E-10</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1251100357211333</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="2"/>
+        <v>5.8163065183451353E-3</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -526,11 +2891,20 @@
       </c>
       <c r="B13" s="1">
         <f t="shared" si="0"/>
-        <v>0.21862313133979494</v>
-      </c>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+        <v>7.4193710088936996E-12</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.11373639611012118</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0575102760627515E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -538,11 +2912,20 @@
       </c>
       <c r="B14" s="1">
         <f t="shared" si="0"/>
-        <v>0.17004021326428495</v>
-      </c>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+        <v>3.0914045870390615E-13</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="1"/>
+        <v>9.4780330091767673E-2</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7625171267712545E-2</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -550,11 +2933,20 @@
       </c>
       <c r="B15" s="1">
         <f t="shared" si="0"/>
-        <v>9.1560114834614986E-2</v>
-      </c>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+        <v>1.1890017642457933E-14</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="1"/>
+        <v>7.2907946224436637E-2</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7115648104173135E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -562,11 +2954,20 @@
       </c>
       <c r="B16" s="1">
         <f t="shared" si="0"/>
-        <v>3.0520038278204983E-2</v>
-      </c>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+        <v>4.2464348723063881E-16</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2077104446026187E-2</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8736640148818745E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -574,240 +2975,550 @@
       </c>
       <c r="B17" s="1">
         <f t="shared" si="0"/>
-        <v>4.7475615099429949E-3</v>
-      </c>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
+        <v>1.4154782907687952E-17</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4718069630684127E-2</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1648853531758354E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>4.4233696586524839E-19</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="1"/>
+        <v>2.1698793519177549E-2</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4561066914697929E-2</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3009910760742607E-20</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="1"/>
+        <v>1.2763996187751522E-2</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="2"/>
+        <v>7.595419637023286E-2</v>
+      </c>
+      <c r="E19" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>3.6138641002062894E-22</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="1"/>
+        <v>7.0911089931952852E-3</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="2"/>
+        <v>8.4393551522480972E-2</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5101686847533788E-24</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="1"/>
+        <v>3.7321626279975249E-3</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="2"/>
+        <v>8.8835317392085208E-2</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3775421711883457E-25</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="1"/>
+        <v>1.8660813139987594E-3</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="2"/>
+        <v>8.8835317392085222E-2</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>5.6608146933055872E-27</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="1"/>
+        <v>8.8861014952321864E-4</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="2"/>
+        <v>8.4605064182938283E-2</v>
+      </c>
+      <c r="E23" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>1.286548793933083E-28</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="1"/>
+        <v>4.0391370432873514E-4</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="2"/>
+        <v>7.6913694711762098E-2</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7968452042023544E-30</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7561465405597289E-4</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="2"/>
+        <v>6.6881473662401839E-2</v>
+      </c>
+      <c r="E25" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>5.8267608420882697E-32</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="1"/>
+        <v>7.317277252332188E-5</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="2"/>
+        <v>5.5734561385334863E-2</v>
+      </c>
+      <c r="E26" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#NUM!</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1653521684176537E-33</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="1"/>
+        <v>2.926910900932863E-5</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4587649108267881E-2</v>
+      </c>
+      <c r="E27" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="A28" s="2">
+        <v>26</v>
+      </c>
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>2.241061862341642E-35</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="1"/>
+        <v>1.1257349618972562E-5</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="2"/>
+        <v>3.4298191621744509E-2</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="A29" s="2">
+        <v>27</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1501145598919514E-37</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="1"/>
+        <v>4.1693887477676179E-6</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="2"/>
+        <v>2.5406067867958917E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="2"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="A30" s="2">
+        <v>28</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>7.4109188569498309E-39</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4890674099170117E-6</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="2"/>
+        <v>1.8147191334256366E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="A31" s="2">
+        <v>29</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2777446305086067E-40</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="1"/>
+        <v>5.1347152066103749E-7</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="2"/>
+        <v>1.2515304368452655E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="2"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>2.1295743841810097E-42</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7115717355367883E-7</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="2"/>
+        <v>8.3435362456351133E-3</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="2"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>3.4347973938403226E-44</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" si="1"/>
+        <v>5.5211991468928569E-8</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="2"/>
+        <v>5.3829266100871558E-3</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="2"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
+      <c r="A34" s="2">
+        <v>32</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>5.3668709278755399E-46</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="1"/>
+        <v>1.7253747334040217E-8</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="2"/>
+        <v>3.3643291313044709E-3</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="2"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="A35" s="2">
+        <v>33</v>
+      </c>
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1316226179930851E-48</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="1"/>
+        <v>5.2284082830424716E-9</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0389873523057505E-3</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="2"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
+      <c r="A36" s="2">
+        <v>34</v>
+      </c>
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1958268555872446E-49</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="1"/>
+        <v>1.5377671420713246E-9</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="2"/>
+        <v>1.199404324885734E-3</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
+      <c r="A37" s="2">
+        <v>35</v>
+      </c>
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>1.7083240794103567E-51</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="1"/>
+        <v>4.3936204059180545E-10</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="2"/>
+        <v>6.8537389993470344E-4</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="2"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
+      <c r="A38" s="2">
+        <v>36</v>
+      </c>
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>2.3726723325143482E-53</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="1"/>
+        <v>1.220450112755023E-10</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="2"/>
+        <v>3.8076327774150232E-4</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="2"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
+      <c r="A39" s="2">
+        <v>37</v>
+      </c>
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>3.2063139628573202E-55</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="1"/>
+        <v>3.2985138182567988E-11</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="2"/>
+        <v>2.0581798796837891E-4</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="2"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
+      <c r="A40" s="2">
+        <v>38</v>
+      </c>
+      <c r="B40" s="1">
+        <f t="shared" si="0"/>
+        <v>4.218834161654256E-57</v>
+      </c>
+      <c r="C40" s="1">
+        <f t="shared" si="1"/>
+        <v>8.6802995217284686E-12</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="2"/>
+        <v>1.0832525682546335E-4</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="2"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
+      <c r="A41" s="2">
+        <v>39</v>
+      </c>
+      <c r="B41" s="1">
+        <f t="shared" si="0"/>
+        <v>5.4087617457106482E-59</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" si="1"/>
+        <v>2.2257178260842245E-12</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="2"/>
+        <v>5.5551413756647715E-5</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="2"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
+      <c r="A42" s="2">
+        <v>40</v>
+      </c>
+      <c r="B42" s="1">
+        <f t="shared" si="0"/>
+        <v>6.7609521821382398E-61</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="1"/>
+        <v>5.5642945652105318E-13</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" si="2"/>
+        <v>2.7775706878323834E-5</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" si="3"/>
+        <v>9.3576229688401748E-14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
